--- a/Notebooks/data/rough_samples.xlsx
+++ b/Notebooks/data/rough_samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosreyes/Desktop/Academics/postdoc/confirm/python/optosurf/Notebooks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7292F319-D66D-F740-A4EA-4A5B22744B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE47B3D-B1EA-FF4E-8F56-683CAA687E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{CCBD6D69-546C-D340-B48E-AE04F8667F1C}"/>
+    <workbookView xWindow="44040" yWindow="1620" windowWidth="28040" windowHeight="17440" xr2:uid="{CCBD6D69-546C-D340-B48E-AE04F8667F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -411,7 +411,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -421,22 +421,22 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -444,22 +444,22 @@
         <v>-15.5</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>28</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -467,22 +467,22 @@
         <v>-14.5</v>
       </c>
       <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>13</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>33</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -493,19 +493,19 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>15</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>37</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -516,19 +516,19 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
         <v>21</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>44</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -536,22 +536,22 @@
         <v>-11.5</v>
       </c>
       <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
       <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>20</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>51</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -562,19 +562,19 @@
         <v>4</v>
       </c>
       <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>8</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>24</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>63</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -582,22 +582,22 @@
         <v>-9.5</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
         <v>9</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>14</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>31</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>79</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -605,22 +605,22 @@
         <v>-8.5</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
         <v>7</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>18</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>40</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>100</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
         <v>12</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>21</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>50</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>137</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -651,22 +651,22 @@
         <v>-6.5</v>
       </c>
       <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
         <v>12</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>19</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>30</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>69</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>192</v>
-      </c>
-      <c r="G11">
-        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -674,22 +674,22 @@
         <v>-5.5</v>
       </c>
       <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12">
         <v>19</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>27</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>43</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>96</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>289</v>
-      </c>
-      <c r="G12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -697,22 +697,22 @@
         <v>-4.5</v>
       </c>
       <c r="B13">
+        <v>31</v>
+      </c>
+      <c r="C13">
         <v>32</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>44</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>73</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>154</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>471</v>
-      </c>
-      <c r="G13">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -723,19 +723,19 @@
         <v>64</v>
       </c>
       <c r="C14">
+        <v>64</v>
+      </c>
+      <c r="D14">
         <v>98</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>146</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>290</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>943</v>
-      </c>
-      <c r="G14">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -743,22 +743,22 @@
         <v>-2.5</v>
       </c>
       <c r="B15">
+        <v>2241</v>
+      </c>
+      <c r="C15">
         <v>2318</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2595</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2694</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2865</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>5355</v>
-      </c>
-      <c r="G15">
-        <v>2241</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -766,22 +766,22 @@
         <v>-1.5</v>
       </c>
       <c r="B16">
+        <v>26226</v>
+      </c>
+      <c r="C16">
         <v>26103</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>26049</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>25429</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>23391</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>19739</v>
-      </c>
-      <c r="G16">
-        <v>26226</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -789,22 +789,22 @@
         <v>-0.5</v>
       </c>
       <c r="B17">
+        <v>35677</v>
+      </c>
+      <c r="C17">
         <v>35403</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>34997</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>34193</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>31515</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>24821</v>
-      </c>
-      <c r="G17">
-        <v>35677</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -812,22 +812,22 @@
         <v>0.5</v>
       </c>
       <c r="B18">
+        <v>34953</v>
+      </c>
+      <c r="C18">
         <v>34574</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>34118</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>33317</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>30785</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>23461</v>
-      </c>
-      <c r="G18">
-        <v>34953</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -835,22 +835,22 @@
         <v>1.5</v>
       </c>
       <c r="B19">
+        <v>25566</v>
+      </c>
+      <c r="C19">
         <v>25387</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>24819</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>24170</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>22481</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>15646</v>
-      </c>
-      <c r="G19">
-        <v>25566</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -858,22 +858,22 @@
         <v>2.5</v>
       </c>
       <c r="B20">
+        <v>2730</v>
+      </c>
+      <c r="C20">
         <v>2658</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>2617</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>2738</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>3215</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2846</v>
-      </c>
-      <c r="G20">
-        <v>2730</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -881,22 +881,22 @@
         <v>3.5</v>
       </c>
       <c r="B21">
+        <v>76</v>
+      </c>
+      <c r="C21">
         <v>77</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>138</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>231</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>465</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>793</v>
-      </c>
-      <c r="G21">
-        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -904,22 +904,22 @@
         <v>4.5</v>
       </c>
       <c r="B22">
+        <v>37</v>
+      </c>
+      <c r="C22">
         <v>38</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>69</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>116</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>243</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>422</v>
-      </c>
-      <c r="G22">
-        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -927,22 +927,22 @@
         <v>5.5</v>
       </c>
       <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>23</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>40</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>67</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>147</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>263</v>
-      </c>
-      <c r="G23">
-        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -950,22 +950,22 @@
         <v>6.5</v>
       </c>
       <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
         <v>13</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>25</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>45</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>96</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>181</v>
-      </c>
-      <c r="G24">
-        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -973,22 +973,22 @@
         <v>7.5</v>
       </c>
       <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
         <v>8</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>14</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>28</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>64</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>127</v>
-      </c>
-      <c r="G25">
-        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -996,22 +996,22 @@
         <v>8.5</v>
       </c>
       <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
         <v>8</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>12</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>20</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>46</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>93</v>
-      </c>
-      <c r="G26">
-        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1019,22 +1019,22 @@
         <v>9.5</v>
       </c>
       <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
         <v>7</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>10</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>18</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>36</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>74</v>
-      </c>
-      <c r="G27">
-        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1042,22 +1042,22 @@
         <v>10.5</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
         <v>10</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>26</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>55</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1065,22 +1065,22 @@
         <v>11.5</v>
       </c>
       <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
         <v>2</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>5</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>8</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>22</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>47</v>
-      </c>
-      <c r="G29">
-        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1088,22 +1088,22 @@
         <v>12.5</v>
       </c>
       <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
         <v>5</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>8</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>11</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>20</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>38</v>
-      </c>
-      <c r="G30">
-        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1111,22 +1111,22 @@
         <v>13.5</v>
       </c>
       <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
         <v>6</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>8</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>10</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>18</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>33</v>
-      </c>
-      <c r="G31">
-        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1137,19 +1137,19 @@
         <v>6</v>
       </c>
       <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
         <v>8</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>13</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>16</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>31</v>
-      </c>
-      <c r="G32">
-        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1157,22 +1157,22 @@
         <v>15.5</v>
       </c>
       <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
         <v>3</v>
       </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
       <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
         <v>7</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>13</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>27</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Notebooks/data/rough_samples.xlsx
+++ b/Notebooks/data/rough_samples.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosreyes/Desktop/Academics/postdoc/confirm/python/optosurf/Notebooks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE47B3D-B1EA-FF4E-8F56-683CAA687E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285732AD-8FAB-C847-A7E9-849D9559A675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44040" yWindow="1620" windowWidth="28040" windowHeight="17440" xr2:uid="{CCBD6D69-546C-D340-B48E-AE04F8667F1C}"/>
+    <workbookView xWindow="44040" yWindow="1620" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{CCBD6D69-546C-D340-B48E-AE04F8667F1C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Guess" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>pt2</t>
   </si>
@@ -57,6 +58,21 @@
   </si>
   <si>
     <t>ann1</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Agaussian</t>
+  </si>
+  <si>
+    <t>Abase</t>
   </si>
 </sst>
 </file>
@@ -410,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECA98E3-6705-854C-AD15-FB892A14E7BE}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1178,4 +1194,134 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69B1EE3-D53B-934A-A1A7-220A82AD71EA}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1.3</v>
+      </c>
+      <c r="C3">
+        <v>1.3</v>
+      </c>
+      <c r="D3">
+        <v>1.3</v>
+      </c>
+      <c r="E3">
+        <v>1.3</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>4000</v>
+      </c>
+      <c r="C4">
+        <v>3250</v>
+      </c>
+      <c r="D4">
+        <v>2250</v>
+      </c>
+      <c r="E4">
+        <v>2250</v>
+      </c>
+      <c r="F4">
+        <v>2250</v>
+      </c>
+      <c r="G4">
+        <v>9250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0.9</v>
+      </c>
+      <c r="C5">
+        <v>0.91</v>
+      </c>
+      <c r="D5">
+        <v>0.93</v>
+      </c>
+      <c r="E5">
+        <v>0.9</v>
+      </c>
+      <c r="F5">
+        <v>0.82</v>
+      </c>
+      <c r="G5">
+        <v>0.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Notebooks/data/rough_samples.xlsx
+++ b/Notebooks/data/rough_samples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosreyes/Desktop/Academics/postdoc/confirm/python/optosurf/Notebooks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285732AD-8FAB-C847-A7E9-849D9559A675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B788AC67-1285-2C48-8BAA-EF96C6A19C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44040" yWindow="1620" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{CCBD6D69-546C-D340-B48E-AE04F8667F1C}"/>
   </bookViews>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Notebooks/data/rough_samples.xlsx
+++ b/Notebooks/data/rough_samples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosreyes/Desktop/Academics/postdoc/confirm/python/optosurf/Notebooks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B788AC67-1285-2C48-8BAA-EF96C6A19C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB60AD38-8949-524E-819B-1A35FBCC5CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44040" yWindow="1620" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{CCBD6D69-546C-D340-B48E-AE04F8667F1C}"/>
   </bookViews>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1323,5 +1323,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Notebooks/data/rough_samples.xlsx
+++ b/Notebooks/data/rough_samples.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosreyes/Desktop/Academics/postdoc/confirm/python/optosurf/Notebooks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB60AD38-8949-524E-819B-1A35FBCC5CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDB71C5-D4E3-9D4C-A8D4-54653A0B26DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44040" yWindow="1620" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{CCBD6D69-546C-D340-B48E-AE04F8667F1C}"/>
+    <workbookView xWindow="43620" yWindow="2860" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{CCBD6D69-546C-D340-B48E-AE04F8667F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
-    <sheet name="Guess" sheetId="3" r:id="rId2"/>
+    <sheet name="Gaussian" sheetId="3" r:id="rId2"/>
+    <sheet name="Lorentzian" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>pt2</t>
   </si>
@@ -73,6 +74,12 @@
   </si>
   <si>
     <t>Abase</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>Alorentzian</t>
   </si>
 </sst>
 </file>
@@ -1200,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69B1EE3-D53B-934A-A1A7-220A82AD71EA}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1254,75 +1261,205 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="C3">
-        <v>1.3</v>
+        <v>0.91</v>
       </c>
       <c r="D3">
-        <v>1.3</v>
+        <v>0.93</v>
       </c>
       <c r="E3">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0.82</v>
       </c>
       <c r="G3">
-        <v>1.59</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>4000</v>
+        <v>1.3</v>
       </c>
       <c r="C4">
-        <v>3250</v>
+        <v>1.3</v>
       </c>
       <c r="D4">
-        <v>2250</v>
+        <v>1.3</v>
       </c>
       <c r="E4">
-        <v>2250</v>
+        <v>1.3</v>
       </c>
       <c r="F4">
-        <v>2250</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>9250</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>4000</v>
       </c>
       <c r="C5">
-        <v>0.91</v>
+        <v>3250</v>
       </c>
       <c r="D5">
-        <v>0.93</v>
+        <v>2250</v>
       </c>
       <c r="E5">
-        <v>0.9</v>
+        <v>2250</v>
       </c>
       <c r="F5">
-        <v>0.82</v>
+        <v>2250</v>
       </c>
       <c r="G5">
-        <v>0.45</v>
+        <v>9250</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260B936C-6A77-9A4D-AA50-16B3467AF53C}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.9</v>
+      </c>
+      <c r="C3">
+        <v>0.9</v>
+      </c>
+      <c r="D3">
+        <v>0.9</v>
+      </c>
+      <c r="E3">
+        <v>0.9</v>
+      </c>
+      <c r="F3">
+        <v>0.85</v>
+      </c>
+      <c r="G3">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.8</v>
+      </c>
+      <c r="C4">
+        <v>0.8</v>
+      </c>
+      <c r="D4">
+        <v>0.8</v>
+      </c>
+      <c r="E4">
+        <v>0.8</v>
+      </c>
+      <c r="F4">
+        <v>0.8</v>
+      </c>
+      <c r="G4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>3500</v>
+      </c>
+      <c r="C5">
+        <v>3500</v>
+      </c>
+      <c r="D5">
+        <v>3500</v>
+      </c>
+      <c r="E5">
+        <v>3500</v>
+      </c>
+      <c r="F5">
+        <v>2000</v>
+      </c>
+      <c r="G5">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Notebooks/data/rough_samples.xlsx
+++ b/Notebooks/data/rough_samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosreyes/Desktop/Academics/postdoc/confirm/python/optosurf/Notebooks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDB71C5-D4E3-9D4C-A8D4-54653A0B26DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1045A9B9-94B4-8C40-8ECC-F37CB77E9FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43620" yWindow="2860" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{CCBD6D69-546C-D340-B48E-AE04F8667F1C}"/>
+    <workbookView xWindow="40400" yWindow="1900" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{CCBD6D69-546C-D340-B48E-AE04F8667F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -1208,7 +1208,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1279,7 +1279,7 @@
         <v>0.82</v>
       </c>
       <c r="G3">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1287,22 +1287,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>1.59</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1310,22 +1310,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>3250</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2250</v>
+        <v>600</v>
       </c>
       <c r="E5">
-        <v>2250</v>
+        <v>1000</v>
       </c>
       <c r="F5">
         <v>2250</v>
       </c>
       <c r="G5">
-        <v>9250</v>
+        <v>6000</v>
       </c>
     </row>
   </sheetData>
@@ -1339,7 +1339,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1441,22 +1441,22 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3500</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>3500</v>
+        <v>500</v>
       </c>
       <c r="F5">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Notebooks/data/rough_samples.xlsx
+++ b/Notebooks/data/rough_samples.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosreyes/Desktop/Academics/postdoc/confirm/python/optosurf/Notebooks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1045A9B9-94B4-8C40-8ECC-F37CB77E9FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F30BB6F-14DF-D34B-9DAF-704B508D69FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40400" yWindow="1900" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{CCBD6D69-546C-D340-B48E-AE04F8667F1C}"/>
+    <workbookView xWindow="40740" yWindow="-1280" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{CCBD6D69-546C-D340-B48E-AE04F8667F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
     <sheet name="Gaussian" sheetId="3" r:id="rId2"/>
     <sheet name="Lorentzian" sheetId="4" r:id="rId3"/>
+    <sheet name="Voigt" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t>pt2</t>
   </si>
@@ -80,6 +81,12 @@
   </si>
   <si>
     <t>Alorentzian</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
 </sst>
 </file>
@@ -1338,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260B936C-6A77-9A4D-AA50-16B3467AF53C}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1462,4 +1469,180 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAE1DD3-CACF-0242-99AA-C0A0D324962E}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.9</v>
+      </c>
+      <c r="C3">
+        <v>0.9</v>
+      </c>
+      <c r="D3">
+        <v>0.9</v>
+      </c>
+      <c r="E3">
+        <v>0.9</v>
+      </c>
+      <c r="F3">
+        <v>0.9</v>
+      </c>
+      <c r="G3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1.2</v>
+      </c>
+      <c r="C5">
+        <v>1.2</v>
+      </c>
+      <c r="D5">
+        <v>1.2</v>
+      </c>
+      <c r="E5">
+        <v>1.2</v>
+      </c>
+      <c r="F5">
+        <v>1.2</v>
+      </c>
+      <c r="G5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>5000</v>
+      </c>
+      <c r="C6">
+        <v>5000</v>
+      </c>
+      <c r="D6">
+        <v>5000</v>
+      </c>
+      <c r="E6">
+        <v>5000</v>
+      </c>
+      <c r="F6">
+        <v>5000</v>
+      </c>
+      <c r="G6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>9000</v>
+      </c>
+      <c r="C7">
+        <v>9000</v>
+      </c>
+      <c r="D7">
+        <v>9000</v>
+      </c>
+      <c r="E7">
+        <v>9000</v>
+      </c>
+      <c r="F7">
+        <v>9000</v>
+      </c>
+      <c r="G7">
+        <v>9000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Notebooks/data/rough_samples.xlsx
+++ b/Notebooks/data/rough_samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosreyes/Desktop/Academics/postdoc/confirm/python/optosurf/Notebooks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F30BB6F-14DF-D34B-9DAF-704B508D69FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3743EF68-7A1B-C647-9CA7-26BDC400AAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40740" yWindow="-1280" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{CCBD6D69-546C-D340-B48E-AE04F8667F1C}"/>
+    <workbookView xWindow="40740" yWindow="500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{CCBD6D69-546C-D340-B48E-AE04F8667F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>pt2</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>A2</t>
+  </si>
+  <si>
+    <t>factor</t>
   </si>
 </sst>
 </file>
@@ -1212,9 +1215,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69B1EE3-D53B-934A-A1A7-220A82AD71EA}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1333,6 +1336,29 @@
       </c>
       <c r="G5">
         <v>6000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1475,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAE1DD3-CACF-0242-99AA-C0A0D324962E}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Notebooks/data/rough_samples.xlsx
+++ b/Notebooks/data/rough_samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosreyes/Desktop/Academics/postdoc/confirm/python/optosurf/Notebooks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F30BB6F-14DF-D34B-9DAF-704B508D69FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3BA4CA-F3F3-8748-9A11-94E682FF40B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40740" yWindow="-1280" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{CCBD6D69-546C-D340-B48E-AE04F8667F1C}"/>
+    <workbookView xWindow="40740" yWindow="500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{CCBD6D69-546C-D340-B48E-AE04F8667F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
   <si>
     <t>pt2</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>A2</t>
+  </si>
+  <si>
+    <t>displacement</t>
   </si>
 </sst>
 </file>
@@ -1212,13 +1215,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69B1EE3-D53B-934A-A1A7-220A82AD71EA}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1333,6 +1339,29 @@
       </c>
       <c r="G5">
         <v>6000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>0.6</v>
+      </c>
+      <c r="D6">
+        <v>-1.4</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -1343,13 +1372,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260B936C-6A77-9A4D-AA50-16B3467AF53C}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1464,6 +1496,29 @@
       </c>
       <c r="G5">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1473,13 +1528,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAE1DD3-CACF-0242-99AA-C0A0D324962E}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1642,6 +1700,29 @@
         <v>9000</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notebooks/data/rough_samples.xlsx
+++ b/Notebooks/data/rough_samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosreyes/Desktop/Academics/postdoc/confirm/python/optosurf/Notebooks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3BA4CA-F3F3-8748-9A11-94E682FF40B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3ED888-11F0-D949-AB4C-7A0BC9EDBA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40740" yWindow="500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{CCBD6D69-546C-D340-B48E-AE04F8667F1C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19920" activeTab="1" xr2:uid="{CCBD6D69-546C-D340-B48E-AE04F8667F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -1217,7 +1217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69B1EE3-D53B-934A-A1A7-220A82AD71EA}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1352,7 +1352,7 @@
         <v>0.6</v>
       </c>
       <c r="D6">
-        <v>-1.4</v>
+        <v>0.2</v>
       </c>
       <c r="E6">
         <v>0</v>

--- a/Notebooks/data/rough_samples.xlsx
+++ b/Notebooks/data/rough_samples.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosreyes/Desktop/Academics/postdoc/confirm/python/optosurf/Notebooks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3ED888-11F0-D949-AB4C-7A0BC9EDBA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AB344D-911F-3C4F-B466-5ADE10D06FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19920" activeTab="1" xr2:uid="{CCBD6D69-546C-D340-B48E-AE04F8667F1C}"/>
+    <workbookView xWindow="42760" yWindow="660" windowWidth="34560" windowHeight="19920" activeTab="2" xr2:uid="{CCBD6D69-546C-D340-B48E-AE04F8667F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
     <sheet name="Gaussian" sheetId="3" r:id="rId2"/>
-    <sheet name="Lorentzian" sheetId="4" r:id="rId3"/>
-    <sheet name="Voigt" sheetId="5" r:id="rId4"/>
+    <sheet name="SuperGaussian" sheetId="6" r:id="rId3"/>
+    <sheet name="Lorentzian" sheetId="4" r:id="rId4"/>
+    <sheet name="Voigt" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="19">
   <si>
     <t>pt2</t>
   </si>
@@ -90,6 +91,12 @@
   </si>
   <si>
     <t>displacement</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -1215,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69B1EE3-D53B-934A-A1A7-220A82AD71EA}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="175" workbookViewId="0">
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1364,6 +1371,11 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1371,6 +1383,185 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3743A7B-AE46-E74D-88F2-EB12A02079E0}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.9</v>
+      </c>
+      <c r="C3">
+        <v>0.91</v>
+      </c>
+      <c r="D3">
+        <v>0.93</v>
+      </c>
+      <c r="E3">
+        <v>0.9</v>
+      </c>
+      <c r="F3">
+        <v>0.82</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>600</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
+        <v>2250</v>
+      </c>
+      <c r="G5">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>0.6</v>
+      </c>
+      <c r="D7">
+        <v>0.2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260B936C-6A77-9A4D-AA50-16B3467AF53C}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -1526,7 +1717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAE1DD3-CACF-0242-99AA-C0A0D324962E}">
   <dimension ref="A1:G8"/>
   <sheetViews>

--- a/Notebooks/data/rough_samples.xlsx
+++ b/Notebooks/data/rough_samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosreyes/Desktop/Academics/postdoc/confirm/python/optosurf/Notebooks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AB344D-911F-3C4F-B466-5ADE10D06FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A8A6F5-79ED-824F-A224-42604D930835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42760" yWindow="660" windowWidth="34560" windowHeight="19920" activeTab="2" xr2:uid="{CCBD6D69-546C-D340-B48E-AE04F8667F1C}"/>
+    <workbookView xWindow="6340" yWindow="7620" windowWidth="22520" windowHeight="13040" activeTab="2" xr2:uid="{CCBD6D69-546C-D340-B48E-AE04F8667F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -1386,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3743A7B-AE46-E74D-88F2-EB12A02079E0}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2.3049E-2</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>0.93</v>
       </c>
       <c r="E3">
-        <v>0.9</v>
+        <v>1.01</v>
       </c>
       <c r="F3">
         <v>0.82</v>
@@ -1478,7 +1478,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1.32</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0.82</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1547,7 +1547,7 @@
         <v>0.2</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="F7">
         <v>0.5</v>

--- a/Notebooks/data/rough_samples.xlsx
+++ b/Notebooks/data/rough_samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosreyes/Desktop/Academics/postdoc/confirm/python/optosurf/Notebooks/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A8A6F5-79ED-824F-A224-42604D930835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6601BFFE-116C-CD42-9F11-21EFBD48333B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="7620" windowWidth="22520" windowHeight="13040" activeTab="2" xr2:uid="{CCBD6D69-546C-D340-B48E-AE04F8667F1C}"/>
+    <workbookView xWindow="45060" yWindow="4960" windowWidth="17500" windowHeight="11440" activeTab="2" xr2:uid="{CCBD6D69-546C-D340-B48E-AE04F8667F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
